--- a/10/2/Renta Fija 2021 - Diaria.xlsx
+++ b/10/2/Renta Fija 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Serie</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,6 +468,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>5.8</v>
+      </c>
+      <c r="C3">
+        <v>6.2</v>
+      </c>
+      <c r="D3">
+        <v>2.1</v>
+      </c>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
